--- a/projet/Conventions/DOCS/DWWM_Liste_reservations.xlsx
+++ b/projet/Conventions/DOCS/DWWM_Liste_reservations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701871\Documents\GIT DWWM 20\_Reference\Projet\Conventions\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-95-10\Projet Convention\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7596"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des réservations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>GRN</t>
   </si>
@@ -79,13 +79,61 @@
   </si>
   <si>
     <t>PRF</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>test@gmail,com</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>tutu</t>
+  </si>
+  <si>
+    <t>titi</t>
+  </si>
+  <si>
+    <t>tata@gmail,com</t>
+  </si>
+  <si>
+    <t>tutu@gmail,com</t>
+  </si>
+  <si>
+    <t>titi@gmail,com</t>
+  </si>
+  <si>
+    <t>toto@gmail,com</t>
+  </si>
+  <si>
+    <t>Carey.Leilani@gmail.com</t>
+  </si>
+  <si>
+    <t>Careys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -100,6 +148,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -159,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -173,6 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,6 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -468,30 +526,30 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="47.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="G1" t="s">
         <v>13</v>
       </c>
@@ -499,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -507,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -515,13 +573,13 @@
         <v>20031</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -559,79 +617,131 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>865479</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5">
+        <v>35344</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>865478</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5">
+        <v>31391</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>865477</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5">
+        <v>34549</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>865476</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5">
+        <v>36527</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>865475</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>31016</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -640,10 +750,12 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -657,7 +769,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -671,7 +783,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -685,7 +797,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -699,7 +811,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -713,7 +825,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -727,7 +839,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -741,13 +853,13 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
@@ -758,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -772,7 +884,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -792,7 +904,14 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K6" r:id="rId1"/>
+    <hyperlink ref="K7" r:id="rId2"/>
+    <hyperlink ref="K8" r:id="rId3"/>
+    <hyperlink ref="K9" r:id="rId4"/>
+    <hyperlink ref="K10" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>